--- a/biology/Botanique/Joseph-O._Vandal/Joseph-O._Vandal.xlsx
+++ b/biology/Botanique/Joseph-O._Vandal/Joseph-O._Vandal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph-O. Vandal, né à Saint-Marc-des-Carrières en 1907 et mort à Sainte-Foy en 1994, a été le père de la viticulture au Québec.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé en agronomie par l’Institut d’Oka en 1935, il poursuivit ses études à l’Université McGill de Montréal puis aux États-Unis, notamment à l’université Cornell dans l’État de New-York.
 En 1939, il fut embauché à l’université Laval comme chercheur puis professeur de génétique. Là, il développa de nombreuses plantes et cultivars fruitiers adaptés au climat québécois. Travailleur archarné, il construisit sa propre pépinière au nord du campus pour fournir des plants à son employeur. Son inventaire de 1949 et 1950 montre qu'il a planté plus de 11 000 plants de 130 espèces différentes. Cette pépinière lui servit aussi à satisfaire son esprit de recherche ; une partie de ces dernières allait contribuer à l’avancement du secteur viticole.
@@ -547,7 +561,9 @@
           <t>Hommages toponymiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La rue des Cyprès, dans la ville de Québec, a déjà porté le toponyme de rue Vandal, en son honneur, entre 1955 et 1960, dans l'ancienne ville d'Orsainville 
 </t>
@@ -578,7 +594,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Joseph-O. Vandal sur potagersdantan.wordpress.com, consulté le 9 septembre 2011
 Hommage à Joseph O. Vandal par Mario Cliche sur vitinord.org, consulté le 9 septembre 2011</t>
